--- a/data/Attendance_xlsx/third_year_5sem_IT2.xlsx
+++ b/data/Attendance_xlsx/third_year_5sem_IT2.xlsx
@@ -1,41 +1,96 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9660" windowWidth="16092" xWindow="240" yWindow="12"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Enrollment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-08-16 </t>
+  </si>
+  <si>
+    <t>Rudraksh Shukla</t>
+  </si>
+  <si>
+    <t>Parakh Agrawal</t>
+  </si>
+  <si>
+    <t>ROHIT SISODIYA</t>
+  </si>
+  <si>
+    <t>Rishi Prajapati</t>
+  </si>
+  <si>
+    <t>Radhika Gurjar</t>
+  </si>
+  <si>
+    <t>Rahul Sariya</t>
+  </si>
+  <si>
+    <t>Palkesh Sharma</t>
+  </si>
+  <si>
+    <t>0827IT171070</t>
+  </si>
+  <si>
+    <t>0827IT171055</t>
+  </si>
+  <si>
+    <t>0827IT171069</t>
+  </si>
+  <si>
+    <t>0827IT171066</t>
+  </si>
+  <si>
+    <t>0827IT171062</t>
+  </si>
+  <si>
+    <t>0827IT171063</t>
+  </si>
+  <si>
+    <t>0827IT171054</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -66,18 +121,19 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -124,7 +180,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -156,10 +212,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -191,7 +246,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -367,126 +421,93 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
-  <cols>
-    <col customWidth="1" max="1" min="1" width="20"/>
-    <col customWidth="1" max="2" min="2" width="20"/>
-    <col customWidth="1" max="3" min="3" width="13.44140625"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Enrollment</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">2019-10-18 </t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Rudraksh Shukla</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>0827IT171070</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Parakh Agrawal</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>0827IT171055</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>ROHIT SISODIYA</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>0827IT171069</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Rishi Prajapati</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>0827IT171066</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Radhika Gurjar</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>0827IT171062</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Rahul Sariya</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>0827IT171063</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Palkesh Sharma</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>0827IT171054</t>
-        </is>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>